--- a/data/trans_orig/P19E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DA35F5-68E3-41D1-B444-34D536CC9494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D30D27-85AE-4EEA-8EC1-E32B17FA7521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C0E8DFB-30C4-4F5E-90D8-280E59F03983}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65376CCD-FAED-4408-96B3-933E0C63EAB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="593">
   <si>
     <t>Población según el número de veces que se cepilla los dientes al día en 2015 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>39,85%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
   </si>
   <si>
     <t>44,94%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
   </si>
   <si>
     <t>Dos veces al dia</t>
@@ -105,1705 +105,1717 @@
     <t>33,98%</t>
   </si>
   <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>Una vez al dia</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>Una vez al dia</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
     <t>3,24%</t>
   </si>
   <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4470BDD-A6BA-4935-9BD4-504F3BCE78B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B4EF39-9B65-4E16-9528-DD44FED20ED8}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2525,16 +2537,16 @@
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -2543,13 +2555,13 @@
         <v>12210</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -2558,13 +2570,13 @@
         <v>8011</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -2573,13 +2585,13 @@
         <v>20222</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2606,13 @@
         <v>411149</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>395</v>
@@ -2609,13 +2621,13 @@
         <v>386886</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>780</v>
@@ -2624,18 +2636,18 @@
         <v>798035</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2647,13 +2659,13 @@
         <v>214259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>279</v>
@@ -2662,13 +2674,13 @@
         <v>273502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>484</v>
@@ -2677,13 +2689,13 @@
         <v>487761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2710,13 @@
         <v>203716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>188</v>
@@ -2713,13 +2725,13 @@
         <v>183264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>386</v>
@@ -2728,13 +2740,13 @@
         <v>386980</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2761,13 @@
         <v>127575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>96</v>
@@ -2764,13 +2776,13 @@
         <v>91594</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>217</v>
@@ -2779,13 +2791,13 @@
         <v>219169</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2812,13 @@
         <v>2898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2815,13 +2827,13 @@
         <v>2993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2833,16 +2845,16 @@
         <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>28</v>
@@ -2851,13 +2863,13 @@
         <v>30029</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2866,10 +2878,10 @@
         <v>3661</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>101</v>
@@ -2881,7 +2893,7 @@
         <v>33690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>102</v>
@@ -2902,13 +2914,13 @@
         <v>578477</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>570</v>
@@ -2917,13 +2929,13 @@
         <v>555013</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1125</v>
@@ -2932,13 +2944,13 @@
         <v>1133490</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,7 +3054,7 @@
         <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3069,13 @@
         <v>144794</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>113</v>
@@ -3072,13 +3084,13 @@
         <v>110460</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>251</v>
@@ -3087,13 +3099,13 @@
         <v>255254</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3120,13 @@
         <v>12732</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3123,13 +3135,13 @@
         <v>885</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3138,19 +3150,19 @@
         <v>13617</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>35</v>
@@ -3159,10 +3171,10 @@
         <v>36463</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>141</v>
@@ -3180,7 +3192,7 @@
         <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -3189,13 +3201,13 @@
         <v>41289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3222,13 @@
         <v>658562</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>654</v>
@@ -3225,13 +3237,13 @@
         <v>650384</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -3240,18 +3252,18 @@
         <v>1308946</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3263,13 +3275,13 @@
         <v>219957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>259</v>
@@ -3350,7 +3362,7 @@
         <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3377,13 @@
         <v>156631</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>113</v>
@@ -3380,13 +3392,13 @@
         <v>118210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>255</v>
@@ -3395,13 +3407,13 @@
         <v>274841</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3428,13 @@
         <v>15178</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3431,13 +3443,13 @@
         <v>3932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -3452,13 +3464,13 @@
         <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>43</v>
@@ -3467,13 +3479,13 @@
         <v>49932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -3482,10 +3494,10 @@
         <v>15575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>185</v>
@@ -3518,13 +3530,13 @@
         <v>628836</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>595</v>
@@ -3533,13 +3545,13 @@
         <v>641063</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1162</v>
@@ -3548,13 +3560,13 @@
         <v>1269899</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3598,13 @@
         <v>181043</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>297</v>
@@ -3601,13 +3613,13 @@
         <v>341020</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3634,7 @@
         <v>117455</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>199</v>
@@ -3757,16 +3769,16 @@
         <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>45</v>
@@ -3775,13 +3787,13 @@
         <v>51912</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -3790,13 +3802,13 @@
         <v>27697</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>70</v>
@@ -3805,13 +3817,13 @@
         <v>79609</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3838,13 @@
         <v>458729</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>421</v>
@@ -3841,13 +3853,13 @@
         <v>482336</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>828</v>
@@ -3856,18 +3868,18 @@
         <v>941065</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3879,13 +3891,13 @@
         <v>144583</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>210</v>
@@ -3894,13 +3906,13 @@
         <v>249534</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="M34" s="7">
         <v>366</v>
@@ -3909,13 +3921,13 @@
         <v>394117</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3942,13 @@
         <v>135157</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>176</v>
@@ -3945,13 +3957,13 @@
         <v>204752</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>318</v>
@@ -3960,13 +3972,13 @@
         <v>339909</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3993,13 @@
         <v>168367</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>149</v>
@@ -3996,13 +4008,13 @@
         <v>176926</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>325</v>
@@ -4011,13 +4023,13 @@
         <v>345294</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4044,13 @@
         <v>51111</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>36</v>
@@ -4047,13 +4059,13 @@
         <v>44924</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>88</v>
@@ -4062,19 +4074,19 @@
         <v>96035</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>70</v>
@@ -4083,13 +4095,13 @@
         <v>62998</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>53</v>
@@ -4098,13 +4110,13 @@
         <v>63823</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>123</v>
@@ -4113,13 +4125,13 @@
         <v>126821</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4146,13 @@
         <v>562216</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>624</v>
@@ -4149,13 +4161,13 @@
         <v>739960</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>1220</v>
@@ -4164,13 +4176,13 @@
         <v>1302176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4199,13 @@
         <v>1159819</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>1420</v>
@@ -4202,13 +4214,13 @@
         <v>1498161</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>2517</v>
@@ -4217,13 +4229,13 @@
         <v>2657980</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4250,13 @@
         <v>990542</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>1071</v>
@@ -4253,13 +4265,13 @@
         <v>1130839</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>2020</v>
@@ -4268,13 +4280,13 @@
         <v>2121381</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4301,13 @@
         <v>805598</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>605</v>
@@ -4304,13 +4316,13 @@
         <v>640242</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>1371</v>
@@ -4319,13 +4331,13 @@
         <v>1445840</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4352,13 @@
         <v>98463</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>53</v>
@@ -4355,13 +4367,13 @@
         <v>62807</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M43" s="7">
         <v>148</v>
@@ -4370,19 +4382,19 @@
         <v>161270</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>231</v>
@@ -4391,13 +4403,13 @@
         <v>243546</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H44" s="7">
         <v>110</v>
@@ -4406,13 +4418,13 @@
         <v>123593</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M44" s="7">
         <v>341</v>
@@ -4421,13 +4433,13 @@
         <v>367138</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4454,13 @@
         <v>3297968</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>3259</v>
@@ -4457,13 +4469,13 @@
         <v>3455642</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>6397</v>
@@ -4472,18 +4484,18 @@
         <v>6753610</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4505,7 +4517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B94A3A-6E97-4A77-8FAE-964E5180C4D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7107F54-907D-4123-A1A6-583851CAC1CE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4522,7 +4534,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4629,13 +4641,13 @@
         <v>117200</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -4644,13 +4656,13 @@
         <v>136361</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -4659,13 +4671,13 @@
         <v>253561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4692,13 @@
         <v>228216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -4695,13 +4707,13 @@
         <v>190187</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>218</v>
@@ -4710,13 +4722,13 @@
         <v>418404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4743,13 @@
         <v>32262</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -4746,13 +4758,13 @@
         <v>24186</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>103</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -4761,13 +4773,13 @@
         <v>56449</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4794,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4797,13 +4809,13 @@
         <v>2527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4812,19 +4824,19 @@
         <v>2527</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4833,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4851,10 +4863,10 @@
         <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4863,13 +4875,13 @@
         <v>1695</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4896,13 @@
         <v>377679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
@@ -4899,13 +4911,13 @@
         <v>354957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>379</v>
@@ -4914,18 +4926,18 @@
         <v>732636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4937,13 +4949,13 @@
         <v>81316</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -4952,13 +4964,13 @@
         <v>198244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>234</v>
@@ -4967,13 +4979,13 @@
         <v>279559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5000,13 @@
         <v>247183</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -5003,13 +5015,13 @@
         <v>261530</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M11" s="7">
         <v>415</v>
@@ -5018,13 +5030,13 @@
         <v>508713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5051,13 @@
         <v>81959</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -5054,13 +5066,13 @@
         <v>26189</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M12" s="7">
         <v>88</v>
@@ -5069,13 +5081,13 @@
         <v>108148</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5102,13 @@
         <v>3685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5105,13 +5117,13 @@
         <v>2942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5120,19 +5132,19 @@
         <v>6627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -5141,13 +5153,13 @@
         <v>14253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5156,13 +5168,13 @@
         <v>9673</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -5171,13 +5183,13 @@
         <v>23925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5204,13 @@
         <v>428396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>460</v>
@@ -5207,13 +5219,13 @@
         <v>498577</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>762</v>
@@ -5222,13 +5234,13 @@
         <v>926973</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5257,13 @@
         <v>157168</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>303</v>
@@ -5260,13 +5272,13 @@
         <v>215704</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>449</v>
@@ -5275,7 +5287,7 @@
         <v>372872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>401</v>
@@ -5296,13 +5308,13 @@
         <v>289021</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -5311,13 +5323,13 @@
         <v>304226</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
@@ -5326,13 +5338,13 @@
         <v>593248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5359,13 @@
         <v>92987</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5362,13 +5374,13 @@
         <v>57788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M18" s="7">
         <v>177</v>
@@ -5377,13 +5389,13 @@
         <v>150775</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5410,13 @@
         <v>3017</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5416,10 +5428,10 @@
         <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5428,19 +5440,19 @@
         <v>4730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>14</v>
@@ -5449,13 +5461,13 @@
         <v>15059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5464,13 +5476,13 @@
         <v>3884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>429</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -5479,13 +5491,13 @@
         <v>18943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5512,13 @@
         <v>557252</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>845</v>
@@ -5515,13 +5527,13 @@
         <v>583316</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1391</v>
@@ -5530,18 +5542,18 @@
         <v>1140568</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5553,13 +5565,13 @@
         <v>200601</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>368</v>
@@ -5568,13 +5580,13 @@
         <v>260323</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>516</v>
@@ -5583,13 +5595,13 @@
         <v>460924</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5616,13 @@
         <v>352671</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>607</v>
@@ -5619,13 +5631,13 @@
         <v>382112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>954</v>
@@ -5634,13 +5646,13 @@
         <v>734783</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5667,13 @@
         <v>138650</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H24" s="7">
         <v>139</v>
@@ -5670,13 +5682,13 @@
         <v>87379</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M24" s="7">
         <v>276</v>
@@ -5685,13 +5697,13 @@
         <v>226029</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,10 +5721,10 @@
         <v>41</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5721,13 +5733,13 @@
         <v>3110</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5736,19 +5748,19 @@
         <v>11995</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>20</v>
@@ -5757,13 +5769,13 @@
         <v>20031</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -5772,13 +5784,13 @@
         <v>12690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>465</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>56</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -5787,13 +5799,13 @@
         <v>32721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5820,13 @@
         <v>720838</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>1139</v>
@@ -5823,13 +5835,13 @@
         <v>745614</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1800</v>
@@ -5838,13 +5850,13 @@
         <v>1466452</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5873,13 @@
         <v>128999</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>469</v>
+        <v>169</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7">
         <v>301</v>
@@ -5876,13 +5888,13 @@
         <v>180701</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="M28" s="7">
         <v>439</v>
@@ -5891,13 +5903,13 @@
         <v>309701</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5924,13 @@
         <v>285098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H29" s="7">
         <v>534</v>
@@ -5927,13 +5939,13 @@
         <v>317401</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>857</v>
@@ -5942,13 +5954,13 @@
         <v>602500</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5975,13 @@
         <v>154566</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>234</v>
+        <v>492</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="H30" s="7">
         <v>144</v>
@@ -5978,13 +5990,13 @@
         <v>83300</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="M30" s="7">
         <v>313</v>
@@ -5993,13 +6005,13 @@
         <v>237866</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6026,13 @@
         <v>9353</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>495</v>
+        <v>142</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -6029,13 +6041,13 @@
         <v>4075</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -6044,19 +6056,19 @@
         <v>13427</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>425</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>501</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>21</v>
@@ -6065,13 +6077,13 @@
         <v>20197</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>186</v>
+        <v>507</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6080,13 +6092,13 @@
         <v>6179</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>88</v>
+        <v>460</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -6095,13 +6107,13 @@
         <v>26376</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6128,13 @@
         <v>598213</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>997</v>
@@ -6131,13 +6143,13 @@
         <v>591656</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>1657</v>
@@ -6146,18 +6158,18 @@
         <v>1189869</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6169,13 +6181,13 @@
         <v>112540</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H34" s="7">
         <v>360</v>
@@ -6184,13 +6196,13 @@
         <v>196370</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M34" s="7">
         <v>525</v>
@@ -6199,13 +6211,13 @@
         <v>308910</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6232,13 @@
         <v>318484</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H35" s="7">
         <v>778</v>
@@ -6235,13 +6247,13 @@
         <v>531693</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M35" s="7">
         <v>1240</v>
@@ -6250,13 +6262,13 @@
         <v>850177</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6283,13 @@
         <v>190894</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H36" s="7">
         <v>392</v>
@@ -6286,13 +6298,13 @@
         <v>203958</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M36" s="7">
         <v>677</v>
@@ -6301,13 +6313,13 @@
         <v>394851</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6334,13 @@
         <v>26160</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>535</v>
+        <v>43</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -6337,13 +6349,13 @@
         <v>29098</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="M37" s="7">
         <v>88</v>
@@ -6352,19 +6364,19 @@
         <v>55258</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>183</v>
+        <v>542</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>64</v>
@@ -6373,13 +6385,13 @@
         <v>39675</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H38" s="7">
         <v>95</v>
@@ -6388,13 +6400,13 @@
         <v>49308</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>545</v>
+        <v>97</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M38" s="7">
         <v>159</v>
@@ -6403,13 +6415,13 @@
         <v>88983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6436,13 @@
         <v>687753</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>1675</v>
@@ -6439,13 +6451,13 @@
         <v>1010427</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>2689</v>
@@ -6454,13 +6466,13 @@
         <v>1698179</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6489,13 @@
         <v>797825</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>212</v>
+        <v>552</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>115</v>
+        <v>554</v>
       </c>
       <c r="H40" s="7">
         <v>1572</v>
@@ -6492,13 +6504,13 @@
         <v>1187704</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M40" s="7">
         <v>2282</v>
@@ -6507,13 +6519,13 @@
         <v>1985529</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6540,13 @@
         <v>1720673</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H41" s="7">
         <v>2731</v>
@@ -6543,13 +6555,13 @@
         <v>1987150</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M41" s="7">
         <v>4424</v>
@@ -6558,13 +6570,13 @@
         <v>3707824</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6591,13 @@
         <v>691318</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H42" s="7">
         <v>810</v>
@@ -6594,13 +6606,13 @@
         <v>482799</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="M42" s="7">
         <v>1570</v>
@@ -6609,13 +6621,13 @@
         <v>1174118</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6642,13 @@
         <v>51099</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>575</v>
+        <v>430</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H43" s="7">
         <v>70</v>
@@ -6645,13 +6657,13 @@
         <v>43465</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>184</v>
+        <v>583</v>
       </c>
       <c r="M43" s="7">
         <v>132</v>
@@ -6660,19 +6672,19 @@
         <v>94564</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>581</v>
+        <v>347</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>388</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>130</v>
@@ -6681,13 +6693,13 @@
         <v>109214</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H44" s="7">
         <v>140</v>
@@ -6696,13 +6708,13 @@
         <v>83429</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="M44" s="7">
         <v>270</v>
@@ -6711,13 +6723,13 @@
         <v>192643</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6744,13 @@
         <v>3370130</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>5323</v>
@@ -6747,13 +6759,13 @@
         <v>3784548</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>8678</v>
@@ -6762,18 +6774,18 @@
         <v>7154678</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D30D27-85AE-4EEA-8EC1-E32B17FA7521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA276372-4D1C-41F7-A4A2-4D14900B41E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65376CCD-FAED-4408-96B3-933E0C63EAB1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30F35C5C-3290-4C3F-9AA7-421A85F9ED90}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="593">
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2015 (Tasa respuesta: 97,38%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="582">
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,1726 +75,1693 @@
     <t>39,85%</t>
   </si>
   <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>Dos veces al dia</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>Una vez al dia</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>Dos veces al dia</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>Una vez al dia</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
   </si>
   <si>
     <t>2,71%</t>
@@ -2227,7 +2194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B4EF39-9B65-4E16-9528-DD44FED20ED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2A42A5-D3FE-4EF9-93BF-18D0ED70DE5B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2833,7 +2800,7 @@
         <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2842,13 +2809,13 @@
         <v>5891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2830,13 @@
         <v>30029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2878,10 +2845,10 @@
         <v>3661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>101</v>
@@ -3018,13 +2985,13 @@
         <v>207389</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -3033,13 +3000,13 @@
         <v>218190</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -3048,13 +3015,13 @@
         <v>425579</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,7 +3072,7 @@
         <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3087,13 @@
         <v>12732</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3135,13 +3102,13 @@
         <v>885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3150,13 +3117,13 @@
         <v>13617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,10 +3138,10 @@
         <v>36463</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>141</v>
@@ -3281,7 +3248,7 @@
         <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>259</v>
@@ -3290,13 +3257,13 @@
         <v>283261</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>457</v>
@@ -3305,13 +3272,13 @@
         <v>503218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3293,13 @@
         <v>187138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>204</v>
@@ -3341,13 +3308,13 @@
         <v>220086</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>375</v>
@@ -3356,13 +3323,13 @@
         <v>407223</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3344,13 @@
         <v>156631</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>113</v>
@@ -3392,13 +3359,13 @@
         <v>118210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>255</v>
@@ -3407,13 +3374,13 @@
         <v>274841</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3395,13 @@
         <v>15178</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3443,13 +3410,13 @@
         <v>3932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -3458,13 +3425,13 @@
         <v>19110</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3446,13 @@
         <v>49932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -3494,13 +3461,13 @@
         <v>15575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -3509,13 +3476,13 @@
         <v>65507</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,7 +3538,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3583,13 +3550,13 @@
         <v>159978</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>155</v>
@@ -3598,13 +3565,13 @@
         <v>181043</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>297</v>
@@ -3613,13 +3580,13 @@
         <v>341020</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3601,13 @@
         <v>117455</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>150</v>
@@ -3649,13 +3616,13 @@
         <v>170344</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>257</v>
@@ -3664,13 +3631,13 @@
         <v>287799</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3652,13 @@
         <v>117880</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>85</v>
@@ -3700,13 +3667,13 @@
         <v>95994</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -3715,13 +3682,13 @@
         <v>213873</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3703,13 @@
         <v>11505</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -3751,13 +3718,13 @@
         <v>7258</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -3766,13 +3733,13 @@
         <v>18763</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3754,13 @@
         <v>51912</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -3802,13 +3769,13 @@
         <v>27697</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>70</v>
@@ -3817,13 +3784,13 @@
         <v>79609</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,7 +3846,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3891,13 +3858,13 @@
         <v>144583</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>210</v>
@@ -3906,13 +3873,13 @@
         <v>249534</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>366</v>
@@ -3921,13 +3888,13 @@
         <v>394117</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3909,13 @@
         <v>135157</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>176</v>
@@ -3957,13 +3924,13 @@
         <v>204752</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>318</v>
@@ -3972,13 +3939,13 @@
         <v>339909</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3960,13 @@
         <v>168367</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>149</v>
@@ -4008,13 +3975,13 @@
         <v>176926</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M36" s="7">
         <v>325</v>
@@ -4023,13 +3990,13 @@
         <v>345294</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4011,13 @@
         <v>51111</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H37" s="7">
         <v>36</v>
@@ -4059,13 +4026,13 @@
         <v>44924</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M37" s="7">
         <v>88</v>
@@ -4074,13 +4041,13 @@
         <v>96035</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4062,13 @@
         <v>62998</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>53</v>
@@ -4110,13 +4077,13 @@
         <v>63823</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>123</v>
@@ -4125,13 +4092,13 @@
         <v>126821</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4166,13 @@
         <v>1159819</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H40" s="7">
         <v>1420</v>
@@ -4214,13 +4181,13 @@
         <v>1498161</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M40" s="7">
         <v>2517</v>
@@ -4229,13 +4196,13 @@
         <v>2657980</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4217,13 @@
         <v>990542</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H41" s="7">
         <v>1071</v>
@@ -4265,13 +4232,13 @@
         <v>1130839</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="M41" s="7">
         <v>2020</v>
@@ -4280,13 +4247,13 @@
         <v>2121381</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>292</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4268,13 @@
         <v>805598</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>605</v>
@@ -4316,13 +4283,13 @@
         <v>640242</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>1371</v>
@@ -4331,13 +4298,13 @@
         <v>1445840</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4319,13 @@
         <v>98463</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>53</v>
@@ -4367,13 +4334,13 @@
         <v>62807</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>306</v>
+        <v>146</v>
       </c>
       <c r="M43" s="7">
         <v>148</v>
@@ -4382,10 +4349,10 @@
         <v>161270</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>309</v>
@@ -4418,13 +4385,13 @@
         <v>123593</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L44" s="7" t="s">
-        <v>147</v>
+        <v>314</v>
       </c>
       <c r="M44" s="7">
         <v>341</v>
@@ -4433,13 +4400,13 @@
         <v>367138</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,7 +4484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7107F54-907D-4123-A1A6-583851CAC1CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1928C1AE-FB54-49A8-9A37-8D19B4B3583E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4659,10 +4626,10 @@
         <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -4674,10 +4641,10 @@
         <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4659,13 @@
         <v>228216</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -4707,13 +4674,13 @@
         <v>190187</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>218</v>
@@ -4722,13 +4689,13 @@
         <v>418404</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4710,13 @@
         <v>32262</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -4758,13 +4725,13 @@
         <v>24186</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>103</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -4773,13 +4740,13 @@
         <v>56449</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4809,10 +4776,10 @@
         <v>2527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>57</v>
@@ -4824,13 +4791,13 @@
         <v>2527</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4860,13 +4827,13 @@
         <v>1695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4875,13 +4842,13 @@
         <v>1695</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4916,13 @@
         <v>81316</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -4964,13 +4931,13 @@
         <v>198244</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>234</v>
@@ -4979,13 +4946,13 @@
         <v>279559</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +4967,13 @@
         <v>247183</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -5015,13 +4982,13 @@
         <v>261530</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M11" s="7">
         <v>415</v>
@@ -5030,13 +4997,13 @@
         <v>508713</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5018,13 @@
         <v>81959</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -5066,13 +5033,13 @@
         <v>26189</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>372</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M12" s="7">
         <v>88</v>
@@ -5081,13 +5048,13 @@
         <v>108148</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5069,13 @@
         <v>3685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5117,13 +5084,13 @@
         <v>2942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5132,13 +5099,13 @@
         <v>6627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5120,13 @@
         <v>14253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5168,13 +5135,13 @@
         <v>9673</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -5183,13 +5150,13 @@
         <v>23925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5224,13 @@
         <v>157168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>303</v>
@@ -5272,13 +5239,13 @@
         <v>215704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>449</v>
@@ -5287,13 +5254,13 @@
         <v>372872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5275,13 @@
         <v>289021</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -5323,13 +5290,13 @@
         <v>304226</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
@@ -5338,13 +5305,13 @@
         <v>593248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5326,13 @@
         <v>92987</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5374,13 +5341,13 @@
         <v>57788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M18" s="7">
         <v>177</v>
@@ -5389,13 +5356,13 @@
         <v>150775</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,10 +5380,10 @@
         <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5428,10 +5395,10 @@
         <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5440,13 +5407,13 @@
         <v>4730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5428,13 @@
         <v>15059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5476,13 +5443,13 @@
         <v>3884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -5491,13 +5458,13 @@
         <v>18943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5532,13 @@
         <v>200601</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>368</v>
@@ -5580,13 +5547,13 @@
         <v>260323</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>516</v>
@@ -5595,13 +5562,13 @@
         <v>460924</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5583,13 @@
         <v>352671</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>607</v>
@@ -5631,13 +5598,13 @@
         <v>382112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>954</v>
@@ -5646,13 +5613,13 @@
         <v>734783</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5634,13 @@
         <v>138650</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H24" s="7">
         <v>139</v>
@@ -5682,13 +5649,13 @@
         <v>87379</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>276</v>
@@ -5697,13 +5664,13 @@
         <v>226029</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,10 +5688,10 @@
         <v>41</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5733,13 +5700,13 @@
         <v>3110</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5748,13 +5715,13 @@
         <v>11995</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5736,13 @@
         <v>20031</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -5784,13 +5751,13 @@
         <v>12690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>95</v>
+        <v>462</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -5799,13 +5766,13 @@
         <v>32721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,7 +5828,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5873,13 +5840,13 @@
         <v>128999</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>301</v>
@@ -5888,13 +5855,13 @@
         <v>180701</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M28" s="7">
         <v>439</v>
@@ -5903,13 +5870,13 @@
         <v>309701</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5891,13 @@
         <v>285098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>534</v>
@@ -5939,13 +5906,13 @@
         <v>317401</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>857</v>
@@ -5954,13 +5921,13 @@
         <v>602500</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5942,13 @@
         <v>154566</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H30" s="7">
         <v>144</v>
@@ -5990,13 +5957,13 @@
         <v>83300</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M30" s="7">
         <v>313</v>
@@ -6005,13 +5972,13 @@
         <v>237866</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +5993,13 @@
         <v>9353</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>142</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -6041,13 +6008,13 @@
         <v>4075</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -6056,13 +6023,13 @@
         <v>13427</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>504</v>
+        <v>96</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>135</v>
+        <v>497</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6044,13 @@
         <v>20197</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6092,13 +6059,13 @@
         <v>6179</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -6107,13 +6074,13 @@
         <v>26376</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,7 +6136,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6181,13 +6148,13 @@
         <v>112540</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H34" s="7">
         <v>360</v>
@@ -6196,13 +6163,13 @@
         <v>196370</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M34" s="7">
         <v>525</v>
@@ -6211,13 +6178,13 @@
         <v>308910</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>520</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6199,13 @@
         <v>318484</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="H35" s="7">
         <v>778</v>
@@ -6247,13 +6214,13 @@
         <v>531693</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="M35" s="7">
         <v>1240</v>
@@ -6262,13 +6229,13 @@
         <v>850177</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6250,13 @@
         <v>190894</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="H36" s="7">
         <v>392</v>
@@ -6298,13 +6265,13 @@
         <v>203958</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="M36" s="7">
         <v>677</v>
@@ -6313,13 +6280,13 @@
         <v>394851</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6301,13 @@
         <v>26160</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -6349,13 +6316,13 @@
         <v>29098</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>541</v>
+        <v>59</v>
       </c>
       <c r="M37" s="7">
         <v>88</v>
@@ -6364,13 +6331,13 @@
         <v>55258</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6352,13 @@
         <v>39675</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="H38" s="7">
         <v>95</v>
@@ -6400,13 +6367,13 @@
         <v>49308</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>97</v>
+        <v>539</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="M38" s="7">
         <v>159</v>
@@ -6415,13 +6382,13 @@
         <v>88983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6456,13 @@
         <v>797825</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="H40" s="7">
         <v>1572</v>
@@ -6504,13 +6471,13 @@
         <v>1187704</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="M40" s="7">
         <v>2282</v>
@@ -6519,13 +6486,13 @@
         <v>1985529</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,13 +6507,13 @@
         <v>1720673</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="H41" s="7">
         <v>2731</v>
@@ -6555,13 +6522,13 @@
         <v>1987150</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="M41" s="7">
         <v>4424</v>
@@ -6570,13 +6537,13 @@
         <v>3707824</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6558,13 @@
         <v>691318</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="H42" s="7">
         <v>810</v>
@@ -6606,13 +6573,13 @@
         <v>482799</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M42" s="7">
         <v>1570</v>
@@ -6621,13 +6588,13 @@
         <v>1174118</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6609,13 @@
         <v>51099</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>430</v>
+        <v>58</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>579</v>
+        <v>225</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="H43" s="7">
         <v>70</v>
@@ -6657,13 +6624,13 @@
         <v>43465</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>581</v>
+        <v>220</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="M43" s="7">
         <v>132</v>
@@ -6672,13 +6639,13 @@
         <v>94564</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>584</v>
+        <v>177</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>58</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6660,13 @@
         <v>109214</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>585</v>
+        <v>133</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="H44" s="7">
         <v>140</v>
@@ -6708,13 +6675,13 @@
         <v>83429</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="M44" s="7">
         <v>270</v>
@@ -6723,13 +6690,13 @@
         <v>192643</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA276372-4D1C-41F7-A4A2-4D14900B41E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B96F2145-837C-41A0-84E3-459C57F98204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30F35C5C-3290-4C3F-9AA7-421A85F9ED90}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B0601DD-F88C-4514-8DF8-9A9A654F8055}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="589">
   <si>
     <t>Población según el número de veces que se cepilla los dientes al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -75,1714 +75,1735 @@
     <t>39,85%</t>
   </si>
   <si>
-    <t>35,25%</t>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>Dos veces al dia</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>Una vez al dia</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
   </si>
   <si>
     <t>45,26%</t>
   </si>
   <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>Dos veces al dia</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>Una vez al dia</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>2,69%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2A42A5-D3FE-4EF9-93BF-18D0ED70DE5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898E8486-5147-4B61-A8AB-51F29B43E87D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2504,16 +2525,16 @@
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -2522,13 +2543,13 @@
         <v>12210</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -2537,13 +2558,13 @@
         <v>8011</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -2552,13 +2573,13 @@
         <v>20222</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2594,13 @@
         <v>411149</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>395</v>
@@ -2588,13 +2609,13 @@
         <v>386886</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>780</v>
@@ -2603,18 +2624,18 @@
         <v>798035</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2626,13 +2647,13 @@
         <v>214259</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>279</v>
@@ -2641,13 +2662,13 @@
         <v>273502</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>484</v>
@@ -2656,13 +2677,13 @@
         <v>487761</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2698,13 @@
         <v>203716</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>188</v>
@@ -2692,13 +2713,13 @@
         <v>183264</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>386</v>
@@ -2707,13 +2728,13 @@
         <v>386980</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2749,13 @@
         <v>127575</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>96</v>
@@ -2743,13 +2764,13 @@
         <v>91594</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>217</v>
@@ -2758,13 +2779,13 @@
         <v>219169</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2800,13 @@
         <v>2898</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2794,13 +2815,13 @@
         <v>2993</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2809,10 +2830,10 @@
         <v>5891</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>96</v>
@@ -2821,7 +2842,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>28</v>
@@ -2848,7 +2869,7 @@
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>101</v>
@@ -2860,7 +2881,7 @@
         <v>33690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>102</v>
@@ -2881,13 +2902,13 @@
         <v>578477</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>570</v>
@@ -2896,13 +2917,13 @@
         <v>555013</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1125</v>
@@ -2911,13 +2932,13 @@
         <v>1133490</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +3006,13 @@
         <v>207389</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -3000,13 +3021,13 @@
         <v>218190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -3015,13 +3036,13 @@
         <v>425579</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3057,13 @@
         <v>144794</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>113</v>
@@ -3051,13 +3072,13 @@
         <v>110460</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>251</v>
@@ -3066,13 +3087,13 @@
         <v>255254</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,10 +3108,10 @@
         <v>12732</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>133</v>
@@ -3129,7 +3150,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>35</v>
@@ -3141,7 +3162,7 @@
         <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>141</v>
@@ -3159,7 +3180,7 @@
         <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -3168,13 +3189,13 @@
         <v>41289</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3210,13 @@
         <v>658562</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>654</v>
@@ -3204,13 +3225,13 @@
         <v>650384</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -3219,18 +3240,18 @@
         <v>1308946</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3242,13 +3263,13 @@
         <v>219957</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>259</v>
@@ -3257,13 +3278,13 @@
         <v>283261</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>457</v>
@@ -3272,13 +3293,13 @@
         <v>503218</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3314,13 @@
         <v>187138</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>204</v>
@@ -3308,13 +3329,13 @@
         <v>220086</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>375</v>
@@ -3323,13 +3344,13 @@
         <v>407223</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3365,13 @@
         <v>156631</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>113</v>
@@ -3359,13 +3380,13 @@
         <v>118210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>255</v>
@@ -3374,13 +3395,13 @@
         <v>274841</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3416,13 @@
         <v>15178</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3410,13 +3431,13 @@
         <v>3932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -3425,19 +3446,19 @@
         <v>19110</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>43</v>
@@ -3446,13 +3467,13 @@
         <v>49932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -3461,13 +3482,13 @@
         <v>15575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -3476,13 +3497,13 @@
         <v>65507</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3518,13 @@
         <v>628836</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>595</v>
@@ -3512,13 +3533,13 @@
         <v>641063</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1162</v>
@@ -3527,18 +3548,18 @@
         <v>1269899</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3550,13 +3571,13 @@
         <v>159978</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>155</v>
@@ -3565,13 +3586,13 @@
         <v>181043</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>297</v>
@@ -3580,13 +3601,13 @@
         <v>341020</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3622,13 @@
         <v>117455</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>150</v>
@@ -3616,13 +3637,13 @@
         <v>170344</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>257</v>
@@ -3631,13 +3652,13 @@
         <v>287799</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3673,13 @@
         <v>117880</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>85</v>
@@ -3667,13 +3688,13 @@
         <v>95994</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -3682,13 +3703,13 @@
         <v>213873</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3724,13 @@
         <v>11505</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -3718,13 +3739,13 @@
         <v>7258</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -3733,19 +3754,19 @@
         <v>18763</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>45</v>
@@ -3754,13 +3775,13 @@
         <v>51912</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -3769,13 +3790,13 @@
         <v>27697</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>70</v>
@@ -3784,13 +3805,13 @@
         <v>79609</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3826,13 @@
         <v>458729</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>421</v>
@@ -3820,13 +3841,13 @@
         <v>482336</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>828</v>
@@ -3835,18 +3856,18 @@
         <v>941065</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3858,13 +3879,13 @@
         <v>144583</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>210</v>
@@ -3873,13 +3894,13 @@
         <v>249534</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>366</v>
@@ -3888,13 +3909,13 @@
         <v>394117</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3930,13 @@
         <v>135157</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>176</v>
@@ -3924,13 +3945,13 @@
         <v>204752</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>318</v>
@@ -3939,13 +3960,13 @@
         <v>339909</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3981,13 @@
         <v>168367</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>149</v>
@@ -3975,13 +3996,13 @@
         <v>176926</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>325</v>
@@ -3990,13 +4011,13 @@
         <v>345294</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4032,13 @@
         <v>51111</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>36</v>
@@ -4026,13 +4047,13 @@
         <v>44924</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>88</v>
@@ -4041,19 +4062,19 @@
         <v>96035</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>70</v>
@@ -4062,13 +4083,13 @@
         <v>62998</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>53</v>
@@ -4077,13 +4098,13 @@
         <v>63823</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>123</v>
@@ -4092,13 +4113,13 @@
         <v>126821</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4134,13 @@
         <v>562216</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>624</v>
@@ -4128,13 +4149,13 @@
         <v>739960</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>1220</v>
@@ -4143,13 +4164,13 @@
         <v>1302176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4187,13 @@
         <v>1159819</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>1420</v>
@@ -4181,13 +4202,13 @@
         <v>1498161</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>2517</v>
@@ -4196,13 +4217,13 @@
         <v>2657980</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4238,13 @@
         <v>990542</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>291</v>
+        <v>114</v>
       </c>
       <c r="H41" s="7">
         <v>1071</v>
@@ -4232,13 +4253,13 @@
         <v>1130839</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>2020</v>
@@ -4247,13 +4268,13 @@
         <v>2121381</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4289,13 @@
         <v>805598</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>605</v>
@@ -4283,13 +4304,13 @@
         <v>640242</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>1371</v>
@@ -4298,13 +4319,13 @@
         <v>1445840</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,10 +4340,10 @@
         <v>98463</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>305</v>
@@ -4340,7 +4361,7 @@
         <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>146</v>
+        <v>308</v>
       </c>
       <c r="M43" s="7">
         <v>148</v>
@@ -4349,19 +4370,19 @@
         <v>161270</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>231</v>
@@ -4370,13 +4391,13 @@
         <v>243546</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H44" s="7">
         <v>110</v>
@@ -4385,13 +4406,13 @@
         <v>123593</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>314</v>
+        <v>146</v>
       </c>
       <c r="M44" s="7">
         <v>341</v>
@@ -4400,13 +4421,13 @@
         <v>367138</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4442,13 @@
         <v>3297968</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>3259</v>
@@ -4436,13 +4457,13 @@
         <v>3455642</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>6397</v>
@@ -4451,18 +4472,18 @@
         <v>6753610</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4484,7 +4505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1928C1AE-FB54-49A8-9A37-8D19B4B3583E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C74AC1-E589-4999-9617-DDA6AD20B241}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4501,7 +4522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4608,13 +4629,13 @@
         <v>117200</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -4623,13 +4644,13 @@
         <v>136361</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -4638,13 +4659,13 @@
         <v>253561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4680,13 @@
         <v>228216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -4674,13 +4695,13 @@
         <v>190187</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>218</v>
@@ -4689,13 +4710,13 @@
         <v>418404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4731,13 @@
         <v>32262</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -4725,13 +4746,13 @@
         <v>24186</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>103</v>
+        <v>343</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -4740,13 +4761,13 @@
         <v>56449</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,10 +4785,10 @@
         <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4776,13 +4797,13 @@
         <v>2527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4791,19 +4812,19 @@
         <v>2527</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4815,10 +4836,10 @@
         <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4827,13 +4848,13 @@
         <v>1695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4842,13 +4863,13 @@
         <v>1695</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4884,13 @@
         <v>377679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
@@ -4878,13 +4899,13 @@
         <v>354957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>379</v>
@@ -4893,18 +4914,18 @@
         <v>732636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4916,13 +4937,13 @@
         <v>81316</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -4931,13 +4952,13 @@
         <v>198244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>234</v>
@@ -4946,13 +4967,13 @@
         <v>279559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4988,13 @@
         <v>247183</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -4982,13 +5003,13 @@
         <v>261530</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>415</v>
@@ -4997,13 +5018,13 @@
         <v>508713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5039,13 @@
         <v>81959</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -5033,13 +5054,13 @@
         <v>26189</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>53</v>
+        <v>377</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M12" s="7">
         <v>88</v>
@@ -5048,13 +5069,13 @@
         <v>108148</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5090,13 @@
         <v>3685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5087,10 +5108,10 @@
         <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5099,19 +5120,19 @@
         <v>6627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -5120,13 +5141,13 @@
         <v>14253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5135,13 +5156,13 @@
         <v>9673</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -5150,13 +5171,13 @@
         <v>23925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5192,13 @@
         <v>428396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>460</v>
@@ -5186,13 +5207,13 @@
         <v>498577</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>762</v>
@@ -5201,13 +5222,13 @@
         <v>926973</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5245,13 @@
         <v>157168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>303</v>
@@ -5239,13 +5260,13 @@
         <v>215704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>449</v>
@@ -5254,13 +5275,13 @@
         <v>372872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5296,13 @@
         <v>289021</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -5290,13 +5311,13 @@
         <v>304226</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
@@ -5305,13 +5326,13 @@
         <v>593248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5347,13 @@
         <v>92987</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5341,13 +5362,13 @@
         <v>57788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="M18" s="7">
         <v>177</v>
@@ -5356,13 +5377,13 @@
         <v>150775</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5398,13 @@
         <v>3017</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5395,10 +5416,10 @@
         <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5407,19 +5428,19 @@
         <v>4730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>14</v>
@@ -5428,13 +5449,13 @@
         <v>15059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5443,13 +5464,13 @@
         <v>3884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -5458,13 +5479,13 @@
         <v>18943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5500,13 @@
         <v>557252</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>845</v>
@@ -5494,13 +5515,13 @@
         <v>583316</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1391</v>
@@ -5509,18 +5530,18 @@
         <v>1140568</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5532,13 +5553,13 @@
         <v>200601</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>368</v>
@@ -5547,13 +5568,13 @@
         <v>260323</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>516</v>
@@ -5562,13 +5583,13 @@
         <v>460924</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5604,13 @@
         <v>352671</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>607</v>
@@ -5598,13 +5619,13 @@
         <v>382112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M23" s="7">
         <v>954</v>
@@ -5613,13 +5634,13 @@
         <v>734783</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5655,13 @@
         <v>138650</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H24" s="7">
         <v>139</v>
@@ -5649,13 +5670,13 @@
         <v>87379</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M24" s="7">
         <v>276</v>
@@ -5664,13 +5685,13 @@
         <v>226029</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,10 +5709,10 @@
         <v>41</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5700,13 +5721,13 @@
         <v>3110</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5715,19 +5736,19 @@
         <v>11995</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>20</v>
@@ -5736,13 +5757,13 @@
         <v>20031</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -5751,13 +5772,13 @@
         <v>12690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>463</v>
+        <v>56</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -5766,13 +5787,13 @@
         <v>32721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>465</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5808,13 @@
         <v>720838</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1139</v>
@@ -5802,13 +5823,13 @@
         <v>745614</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1800</v>
@@ -5817,18 +5838,18 @@
         <v>1466452</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5840,13 +5861,13 @@
         <v>128999</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>170</v>
+        <v>469</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>301</v>
@@ -5855,13 +5876,13 @@
         <v>180701</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>439</v>
@@ -5870,13 +5891,13 @@
         <v>309701</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5912,13 @@
         <v>285098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>534</v>
@@ -5906,13 +5927,13 @@
         <v>317401</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M29" s="7">
         <v>857</v>
@@ -5921,13 +5942,13 @@
         <v>602500</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5963,13 @@
         <v>154566</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>485</v>
+        <v>234</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H30" s="7">
         <v>144</v>
@@ -5957,13 +5978,13 @@
         <v>83300</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M30" s="7">
         <v>313</v>
@@ -5972,13 +5993,13 @@
         <v>237866</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +6014,13 @@
         <v>9353</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>386</v>
+        <v>494</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>142</v>
+        <v>495</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -6008,13 +6029,13 @@
         <v>4075</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -6023,19 +6044,19 @@
         <v>13427</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>96</v>
+        <v>500</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>497</v>
+        <v>425</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>131</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>21</v>
@@ -6044,13 +6065,13 @@
         <v>20197</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>500</v>
+        <v>186</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6062,10 +6083,10 @@
         <v>137</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>451</v>
+        <v>88</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -6074,13 +6095,13 @@
         <v>26376</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6116,13 @@
         <v>598213</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>997</v>
@@ -6110,13 +6131,13 @@
         <v>591656</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1657</v>
@@ -6125,18 +6146,18 @@
         <v>1189869</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6148,13 +6169,13 @@
         <v>112540</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H34" s="7">
         <v>360</v>
@@ -6163,13 +6184,13 @@
         <v>196370</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M34" s="7">
         <v>525</v>
@@ -6178,13 +6199,13 @@
         <v>308910</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>127</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6220,13 @@
         <v>318484</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H35" s="7">
         <v>778</v>
@@ -6214,13 +6235,13 @@
         <v>531693</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M35" s="7">
         <v>1240</v>
@@ -6229,13 +6250,13 @@
         <v>850177</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6271,13 @@
         <v>190894</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H36" s="7">
         <v>392</v>
@@ -6265,13 +6286,13 @@
         <v>203958</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M36" s="7">
         <v>677</v>
@@ -6280,13 +6301,13 @@
         <v>394851</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6322,13 @@
         <v>26160</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>531</v>
+        <v>187</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>43</v>
+        <v>535</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -6316,13 +6337,13 @@
         <v>29098</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="M37" s="7">
         <v>88</v>
@@ -6331,19 +6352,19 @@
         <v>55258</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>533</v>
+        <v>183</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>64</v>
@@ -6352,13 +6373,13 @@
         <v>39675</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="H38" s="7">
         <v>95</v>
@@ -6367,13 +6388,13 @@
         <v>49308</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="M38" s="7">
         <v>159</v>
@@ -6382,13 +6403,13 @@
         <v>88983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6424,13 @@
         <v>687753</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>1675</v>
@@ -6418,13 +6439,13 @@
         <v>1010427</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>2689</v>
@@ -6433,13 +6454,13 @@
         <v>1698179</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6477,13 @@
         <v>797825</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>544</v>
+        <v>212</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>546</v>
+        <v>115</v>
       </c>
       <c r="H40" s="7">
         <v>1572</v>
@@ -6471,13 +6492,13 @@
         <v>1187704</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M40" s="7">
         <v>2282</v>
@@ -6486,13 +6507,13 @@
         <v>1985529</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,13 +6528,13 @@
         <v>1720673</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H41" s="7">
         <v>2731</v>
@@ -6522,13 +6543,13 @@
         <v>1987150</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M41" s="7">
         <v>4424</v>
@@ -6537,13 +6558,13 @@
         <v>3707824</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6579,13 @@
         <v>691318</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H42" s="7">
         <v>810</v>
@@ -6573,13 +6594,13 @@
         <v>482799</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="M42" s="7">
         <v>1570</v>
@@ -6588,13 +6609,13 @@
         <v>1174118</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6630,13 @@
         <v>51099</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>58</v>
+        <v>575</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>225</v>
+        <v>576</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="H43" s="7">
         <v>70</v>
@@ -6624,13 +6645,13 @@
         <v>43465</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>220</v>
+        <v>578</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>573</v>
+        <v>184</v>
       </c>
       <c r="M43" s="7">
         <v>132</v>
@@ -6639,19 +6660,19 @@
         <v>94564</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>177</v>
+        <v>580</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>346</v>
+        <v>581</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>574</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>130</v>
@@ -6660,13 +6681,13 @@
         <v>109214</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>133</v>
+        <v>582</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="H44" s="7">
         <v>140</v>
@@ -6675,13 +6696,13 @@
         <v>83429</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="M44" s="7">
         <v>270</v>
@@ -6690,13 +6711,13 @@
         <v>192643</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6732,13 @@
         <v>3370130</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>5323</v>
@@ -6726,13 +6747,13 @@
         <v>3784548</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>8678</v>
@@ -6741,18 +6762,18 @@
         <v>7154678</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B96F2145-837C-41A0-84E3-459C57F98204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76B5789-A93A-4F13-8EDA-A6C896AF9A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B0601DD-F88C-4514-8DF8-9A9A654F8055}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{83ED16A5-2331-4330-8C6E-BB29463AFE21}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="664">
   <si>
     <t>Población según el número de veces que se cepilla los dientes al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Tres o mas veces al dia</t>
@@ -219,7 +219,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>37,04%</t>
@@ -351,7 +351,7 @@
     <t>4,1%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>39,05%</t>
@@ -480,7 +480,7 @@
     <t>4,25%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>34,98%</t>
@@ -606,7 +606,7 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>34,87%</t>
@@ -735,1075 +735,1300 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>3,01%</t>
   </si>
 </sst>
 </file>
@@ -2215,8 +2440,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898E8486-5147-4B61-A8AB-51F29B43E87D}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98674B41-BE01-4429-A306-79B02644D820}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3873,10 +4098,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="D34" s="7">
-        <v>144583</v>
+        <v>87215</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>233</v>
@@ -3888,10 +4113,10 @@
         <v>235</v>
       </c>
       <c r="H34" s="7">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="I34" s="7">
-        <v>249534</v>
+        <v>138705</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>236</v>
@@ -3903,10 +4128,10 @@
         <v>238</v>
       </c>
       <c r="M34" s="7">
-        <v>366</v>
+        <v>215</v>
       </c>
       <c r="N34" s="7">
-        <v>394117</v>
+        <v>225920</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>239</v>
@@ -3924,10 +4149,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="D35" s="7">
-        <v>135157</v>
+        <v>79908</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>242</v>
@@ -3939,34 +4164,34 @@
         <v>244</v>
       </c>
       <c r="H35" s="7">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="I35" s="7">
-        <v>204752</v>
+        <v>112045</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>183</v>
+      </c>
+      <c r="N35" s="7">
+        <v>191953</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M35" s="7">
-        <v>318</v>
-      </c>
-      <c r="N35" s="7">
-        <v>339909</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,49 +4200,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="D36" s="7">
-        <v>168367</v>
+        <v>96666</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>72</v>
+      </c>
+      <c r="I36" s="7">
+        <v>75833</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H36" s="7">
-        <v>149</v>
-      </c>
-      <c r="I36" s="7">
-        <v>176926</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>165</v>
+      </c>
+      <c r="N36" s="7">
+        <v>172499</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M36" s="7">
-        <v>325</v>
-      </c>
-      <c r="N36" s="7">
-        <v>345294</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,49 +4251,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D37" s="7">
-        <v>51111</v>
+        <v>25730</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>10</v>
+      </c>
+      <c r="I37" s="7">
+        <v>10137</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="7">
-        <v>36</v>
-      </c>
-      <c r="I37" s="7">
-        <v>44924</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>33</v>
+      </c>
+      <c r="N37" s="7">
+        <v>35867</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="M37" s="7">
-        <v>88</v>
-      </c>
-      <c r="N37" s="7">
-        <v>96035</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,49 +4302,49 @@
         <v>49</v>
       </c>
       <c r="C38" s="7">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D38" s="7">
-        <v>62998</v>
+        <v>32261</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>23</v>
+      </c>
+      <c r="I38" s="7">
+        <v>24425</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H38" s="7">
-        <v>53</v>
-      </c>
-      <c r="I38" s="7">
-        <v>63823</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>56</v>
+      </c>
+      <c r="N38" s="7">
+        <v>56685</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="M38" s="7">
-        <v>123</v>
-      </c>
-      <c r="N38" s="7">
-        <v>126821</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,10 +4353,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>596</v>
+        <v>313</v>
       </c>
       <c r="D39" s="7">
-        <v>562216</v>
+        <v>321779</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -4143,10 +4368,10 @@
         <v>59</v>
       </c>
       <c r="H39" s="7">
-        <v>624</v>
+        <v>339</v>
       </c>
       <c r="I39" s="7">
-        <v>739960</v>
+        <v>361145</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>59</v>
@@ -4158,10 +4383,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>1220</v>
+        <v>652</v>
       </c>
       <c r="N39" s="7">
-        <v>1302176</v>
+        <v>682925</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -4175,16 +4400,16 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>1097</v>
+        <v>69</v>
       </c>
       <c r="D40" s="7">
-        <v>1159819</v>
+        <v>57369</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>278</v>
@@ -4196,10 +4421,10 @@
         <v>280</v>
       </c>
       <c r="H40" s="7">
-        <v>1420</v>
+        <v>82</v>
       </c>
       <c r="I40" s="7">
-        <v>1498161</v>
+        <v>110828</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>281</v>
@@ -4211,10 +4436,10 @@
         <v>283</v>
       </c>
       <c r="M40" s="7">
-        <v>2517</v>
+        <v>151</v>
       </c>
       <c r="N40" s="7">
-        <v>2657980</v>
+        <v>168197</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>284</v>
@@ -4223,7 +4448,7 @@
         <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,43 +4457,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>949</v>
+        <v>65</v>
       </c>
       <c r="D41" s="7">
-        <v>990542</v>
+        <v>55249</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="H41" s="7">
-        <v>1071</v>
+        <v>70</v>
       </c>
       <c r="I41" s="7">
-        <v>1130839</v>
+        <v>92707</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>289</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>135</v>
+      </c>
+      <c r="N41" s="7">
+        <v>147956</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="M41" s="7">
-        <v>2020</v>
-      </c>
-      <c r="N41" s="7">
-        <v>2121381</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>292</v>
@@ -4283,10 +4508,10 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>766</v>
+        <v>83</v>
       </c>
       <c r="D42" s="7">
-        <v>805598</v>
+        <v>71701</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>294</v>
@@ -4298,10 +4523,10 @@
         <v>296</v>
       </c>
       <c r="H42" s="7">
-        <v>605</v>
+        <v>77</v>
       </c>
       <c r="I42" s="7">
-        <v>640242</v>
+        <v>101093</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>297</v>
@@ -4313,10 +4538,10 @@
         <v>299</v>
       </c>
       <c r="M42" s="7">
-        <v>1371</v>
+        <v>160</v>
       </c>
       <c r="N42" s="7">
-        <v>1445840</v>
+        <v>172795</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>300</v>
@@ -4334,10 +4559,10 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D43" s="7">
-        <v>98463</v>
+        <v>25381</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>303</v>
@@ -4349,10 +4574,10 @@
         <v>305</v>
       </c>
       <c r="H43" s="7">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I43" s="7">
-        <v>62807</v>
+        <v>34787</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>306</v>
@@ -4364,19 +4589,19 @@
         <v>308</v>
       </c>
       <c r="M43" s="7">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="N43" s="7">
-        <v>161270</v>
+        <v>60167</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>309</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,49 +4610,49 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="D44" s="7">
-        <v>243546</v>
+        <v>30737</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H44" s="7">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="I44" s="7">
-        <v>123593</v>
+        <v>39399</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>146</v>
+        <v>317</v>
       </c>
       <c r="M44" s="7">
-        <v>341</v>
+        <v>67</v>
       </c>
       <c r="N44" s="7">
-        <v>367138</v>
+        <v>70136</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,63 +4661,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>283</v>
+      </c>
+      <c r="D45" s="7">
+        <v>240437</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>285</v>
+      </c>
+      <c r="I45" s="7">
+        <v>378814</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="7">
+        <v>568</v>
+      </c>
+      <c r="N45" s="7">
+        <v>619251</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1097</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1159819</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1420</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1498160</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M46" s="7">
+        <v>2517</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2657980</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>949</v>
+      </c>
+      <c r="D47" s="7">
+        <v>990542</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1071</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1130839</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M47" s="7">
+        <v>2020</v>
+      </c>
+      <c r="N47" s="7">
+        <v>2121381</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>766</v>
+      </c>
+      <c r="D48" s="7">
+        <v>805598</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H48" s="7">
+        <v>605</v>
+      </c>
+      <c r="I48" s="7">
+        <v>640242</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1371</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1445840</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>95</v>
+      </c>
+      <c r="D49" s="7">
+        <v>98463</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H49" s="7">
+        <v>53</v>
+      </c>
+      <c r="I49" s="7">
+        <v>62807</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M49" s="7">
+        <v>148</v>
+      </c>
+      <c r="N49" s="7">
+        <v>161270</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>231</v>
+      </c>
+      <c r="D50" s="7">
+        <v>243546</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H50" s="7">
+        <v>110</v>
+      </c>
+      <c r="I50" s="7">
+        <v>123593</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M50" s="7">
+        <v>341</v>
+      </c>
+      <c r="N50" s="7">
+        <v>367138</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3138</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3297968</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>3259</v>
       </c>
-      <c r="I45" s="7">
-        <v>3455642</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3455641</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>6397</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6753610</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>319</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4505,8 +5039,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C74AC1-E589-4999-9617-DDA6AD20B241}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72333A4-79A0-47B5-B3B3-F6CE4933C6F8}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4522,7 +5056,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4626,46 +5160,46 @@
         <v>51</v>
       </c>
       <c r="D4" s="7">
-        <v>117200</v>
+        <v>124269</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>136361</v>
+        <v>119577</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>114</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
       </c>
       <c r="N4" s="7">
-        <v>253561</v>
+        <v>243846</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,46 +5211,46 @@
         <v>101</v>
       </c>
       <c r="D5" s="7">
-        <v>228216</v>
+        <v>242051</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
       </c>
       <c r="I5" s="7">
-        <v>190187</v>
+        <v>167166</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="M5" s="7">
         <v>218</v>
       </c>
       <c r="N5" s="7">
-        <v>418404</v>
+        <v>409217</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,46 +5262,46 @@
         <v>20</v>
       </c>
       <c r="D6" s="7">
-        <v>32262</v>
+        <v>33667</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>24186</v>
+        <v>22470</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
       </c>
       <c r="N6" s="7">
-        <v>56449</v>
+        <v>56137</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,40 +5319,40 @@
         <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2527</v>
+        <v>2385</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2527</v>
+        <v>2385</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,40 +5370,40 @@
         <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1695</v>
+        <v>1602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>395</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1695</v>
+        <v>1602</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +5415,7 @@
         <v>172</v>
       </c>
       <c r="D9" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -4896,7 +5430,7 @@
         <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -4911,7 +5445,7 @@
         <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -4934,46 +5468,46 @@
         <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>81316</v>
+        <v>79878</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
       </c>
       <c r="I10" s="7">
-        <v>198244</v>
+        <v>178277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>234</v>
       </c>
       <c r="N10" s="7">
-        <v>279559</v>
+        <v>258155</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,46 +5519,46 @@
         <v>170</v>
       </c>
       <c r="D11" s="7">
-        <v>247183</v>
+        <v>241675</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
       </c>
       <c r="I11" s="7">
-        <v>261530</v>
+        <v>296636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="M11" s="7">
         <v>415</v>
       </c>
       <c r="N11" s="7">
-        <v>508713</v>
+        <v>538311</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,46 +5570,46 @@
         <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>81959</v>
+        <v>84052</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
       </c>
       <c r="I12" s="7">
-        <v>26189</v>
+        <v>24411</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="M12" s="7">
         <v>88</v>
       </c>
       <c r="N12" s="7">
-        <v>108148</v>
+        <v>108463</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,46 +5621,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3685</v>
+        <v>3568</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2942</v>
+        <v>2546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>6627</v>
+        <v>6114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>425</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,46 +5672,46 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>14253</v>
+        <v>14373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>428</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>9673</v>
+        <v>9634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>23925</v>
+        <v>24007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>435</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,7 +5723,7 @@
         <v>302</v>
       </c>
       <c r="D15" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -5204,7 +5738,7 @@
         <v>460</v>
       </c>
       <c r="I15" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -5219,7 +5753,7 @@
         <v>762</v>
       </c>
       <c r="N15" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -5242,46 +5776,46 @@
         <v>146</v>
       </c>
       <c r="D16" s="7">
-        <v>157168</v>
+        <v>149555</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>303</v>
       </c>
       <c r="I16" s="7">
-        <v>215704</v>
+        <v>198090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>441</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="M16" s="7">
         <v>449</v>
       </c>
       <c r="N16" s="7">
-        <v>372872</v>
+        <v>347645</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>443</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,46 +5827,46 @@
         <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>289021</v>
+        <v>277291</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
       </c>
       <c r="I17" s="7">
-        <v>304226</v>
+        <v>285188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
       </c>
       <c r="N17" s="7">
-        <v>593248</v>
+        <v>562480</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,46 +5878,46 @@
         <v>93</v>
       </c>
       <c r="D18" s="7">
-        <v>92987</v>
+        <v>92061</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
       </c>
       <c r="I18" s="7">
-        <v>57788</v>
+        <v>53838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="M18" s="7">
         <v>177</v>
       </c>
       <c r="N18" s="7">
-        <v>150775</v>
+        <v>145899</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,46 +5929,46 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>3017</v>
+        <v>2978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1713</v>
+        <v>1548</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>466</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>4730</v>
+        <v>4525</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,46 +5980,46 @@
         <v>14</v>
       </c>
       <c r="D20" s="7">
-        <v>15059</v>
+        <v>14453</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>3884</v>
+        <v>3641</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
       </c>
       <c r="N20" s="7">
-        <v>18943</v>
+        <v>18094</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,7 +6031,7 @@
         <v>546</v>
       </c>
       <c r="D21" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -5512,7 +6046,7 @@
         <v>845</v>
       </c>
       <c r="I21" s="7">
-        <v>583316</v>
+        <v>542305</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -5527,7 +6061,7 @@
         <v>1391</v>
       </c>
       <c r="N21" s="7">
-        <v>1140568</v>
+        <v>1078644</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -5550,46 +6084,46 @@
         <v>148</v>
       </c>
       <c r="D22" s="7">
-        <v>200601</v>
+        <v>383636</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="H22" s="7">
         <v>368</v>
       </c>
       <c r="I22" s="7">
-        <v>260323</v>
+        <v>258953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>516</v>
       </c>
       <c r="N22" s="7">
-        <v>460924</v>
+        <v>642589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,46 +6135,46 @@
         <v>347</v>
       </c>
       <c r="D23" s="7">
-        <v>352671</v>
+        <v>334016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="H23" s="7">
         <v>607</v>
       </c>
       <c r="I23" s="7">
-        <v>382112</v>
+        <v>355765</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="M23" s="7">
         <v>954</v>
       </c>
       <c r="N23" s="7">
-        <v>734783</v>
+        <v>689782</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,46 +6186,46 @@
         <v>137</v>
       </c>
       <c r="D24" s="7">
-        <v>138650</v>
+        <v>139148</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="H24" s="7">
         <v>139</v>
       </c>
       <c r="I24" s="7">
-        <v>87379</v>
+        <v>81993</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>450</v>
+        <v>261</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="M24" s="7">
         <v>276</v>
       </c>
       <c r="N24" s="7">
-        <v>226029</v>
+        <v>221142</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,46 +6237,46 @@
         <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>8884</v>
+        <v>8410</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>468</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>3110</v>
+        <v>2884</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>11995</v>
+        <v>11294</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,46 +6288,46 @@
         <v>20</v>
       </c>
       <c r="D26" s="7">
-        <v>20031</v>
+        <v>19524</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
       </c>
       <c r="I26" s="7">
-        <v>12690</v>
+        <v>11763</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>56</v>
+        <v>509</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
       </c>
       <c r="N26" s="7">
-        <v>32721</v>
+        <v>31288</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>466</v>
+        <v>48</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>510</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,7 +6339,7 @@
         <v>661</v>
       </c>
       <c r="D27" s="7">
-        <v>720838</v>
+        <v>884735</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -5820,7 +6354,7 @@
         <v>1139</v>
       </c>
       <c r="I27" s="7">
-        <v>745614</v>
+        <v>711359</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -5835,7 +6369,7 @@
         <v>1800</v>
       </c>
       <c r="N27" s="7">
-        <v>1466452</v>
+        <v>1596095</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -5858,46 +6392,46 @@
         <v>138</v>
       </c>
       <c r="D28" s="7">
-        <v>128999</v>
+        <v>118441</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="H28" s="7">
         <v>301</v>
       </c>
       <c r="I28" s="7">
-        <v>180701</v>
+        <v>163630</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="M28" s="7">
         <v>439</v>
       </c>
       <c r="N28" s="7">
-        <v>309701</v>
+        <v>282071</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>474</v>
+        <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,46 +6443,46 @@
         <v>323</v>
       </c>
       <c r="D29" s="7">
-        <v>285098</v>
+        <v>265595</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="H29" s="7">
         <v>534</v>
       </c>
       <c r="I29" s="7">
-        <v>317401</v>
+        <v>291865</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="M29" s="7">
         <v>857</v>
       </c>
       <c r="N29" s="7">
-        <v>602500</v>
+        <v>557460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,46 +6494,46 @@
         <v>169</v>
       </c>
       <c r="D30" s="7">
-        <v>154566</v>
+        <v>147350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>234</v>
+        <v>493</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="H30" s="7">
         <v>144</v>
       </c>
       <c r="I30" s="7">
-        <v>83300</v>
+        <v>78190</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="M30" s="7">
         <v>313</v>
       </c>
       <c r="N30" s="7">
-        <v>237866</v>
+        <v>225541</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,46 +6545,46 @@
         <v>9</v>
       </c>
       <c r="D31" s="7">
-        <v>9353</v>
+        <v>8794</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>494</v>
+        <v>57</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>495</v>
+        <v>391</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
       </c>
       <c r="I31" s="7">
-        <v>4075</v>
+        <v>3671</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>497</v>
+        <v>136</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>498</v>
+        <v>143</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>499</v>
+        <v>174</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
       </c>
       <c r="N31" s="7">
-        <v>13427</v>
+        <v>12465</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,46 +6596,46 @@
         <v>21</v>
       </c>
       <c r="D32" s="7">
-        <v>20197</v>
+        <v>19190</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>186</v>
+        <v>542</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
       </c>
       <c r="I32" s="7">
-        <v>6179</v>
+        <v>5757</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>137</v>
+        <v>543</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>88</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
       </c>
       <c r="N32" s="7">
-        <v>26376</v>
+        <v>24948</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>507</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,7 +6647,7 @@
         <v>660</v>
       </c>
       <c r="D33" s="7">
-        <v>598213</v>
+        <v>559371</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>59</v>
@@ -6128,7 +6662,7 @@
         <v>997</v>
       </c>
       <c r="I33" s="7">
-        <v>591656</v>
+        <v>543113</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -6143,7 +6677,7 @@
         <v>1657</v>
       </c>
       <c r="N33" s="7">
-        <v>1189869</v>
+        <v>1102485</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -6163,49 +6697,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="D34" s="7">
-        <v>112540</v>
+        <v>65020</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="H34" s="7">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="I34" s="7">
-        <v>196370</v>
+        <v>113089</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>513</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
-        <v>525</v>
+        <v>332</v>
       </c>
       <c r="N34" s="7">
-        <v>308910</v>
+        <v>178109</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,49 +6748,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>462</v>
+        <v>282</v>
       </c>
       <c r="D35" s="7">
-        <v>318484</v>
+        <v>180488</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="H35" s="7">
-        <v>778</v>
+        <v>408</v>
       </c>
       <c r="I35" s="7">
-        <v>531693</v>
+        <v>404205</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="M35" s="7">
-        <v>1240</v>
+        <v>690</v>
       </c>
       <c r="N35" s="7">
-        <v>850177</v>
+        <v>584693</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>524</v>
+        <v>108</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>525</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,49 +6799,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="D36" s="7">
-        <v>190894</v>
+        <v>93304</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="H36" s="7">
-        <v>392</v>
+        <v>151</v>
       </c>
       <c r="I36" s="7">
-        <v>203958</v>
+        <v>72444</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="M36" s="7">
-        <v>677</v>
+        <v>292</v>
       </c>
       <c r="N36" s="7">
-        <v>394851</v>
+        <v>165748</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>532</v>
+        <v>570</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,49 +6850,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D37" s="7">
-        <v>26160</v>
+        <v>7216</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>187</v>
+        <v>500</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>535</v>
+        <v>96</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="H37" s="7">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I37" s="7">
-        <v>29098</v>
+        <v>3992</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>537</v>
+        <v>100</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>538</v>
+        <v>89</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>187</v>
+        <v>574</v>
       </c>
       <c r="M37" s="7">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>55258</v>
+        <v>11208</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,49 +6901,49 @@
         <v>49</v>
       </c>
       <c r="C38" s="7">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D38" s="7">
-        <v>39675</v>
+        <v>19962</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="H38" s="7">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I38" s="7">
-        <v>49308</v>
+        <v>11850</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>544</v>
+        <v>48</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>545</v>
+        <v>142</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="M38" s="7">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="N38" s="7">
-        <v>88983</v>
+        <v>31811</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>548</v>
+        <v>51</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,10 +6952,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1014</v>
+        <v>567</v>
       </c>
       <c r="D39" s="7">
-        <v>687753</v>
+        <v>365989</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -6433,10 +6967,10 @@
         <v>59</v>
       </c>
       <c r="H39" s="7">
-        <v>1675</v>
+        <v>821</v>
       </c>
       <c r="I39" s="7">
-        <v>1010427</v>
+        <v>605580</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>59</v>
@@ -6448,10 +6982,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>2689</v>
+        <v>1388</v>
       </c>
       <c r="N39" s="7">
-        <v>1698179</v>
+        <v>971569</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -6465,55 +6999,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>710</v>
+        <v>62</v>
       </c>
       <c r="D40" s="7">
-        <v>797825</v>
+        <v>39062</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>212</v>
+        <v>583</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>115</v>
+        <v>585</v>
       </c>
       <c r="H40" s="7">
-        <v>1572</v>
+        <v>131</v>
       </c>
       <c r="I40" s="7">
-        <v>1187704</v>
+        <v>62862</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="M40" s="7">
-        <v>2282</v>
+        <v>193</v>
       </c>
       <c r="N40" s="7">
-        <v>1985529</v>
+        <v>101924</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,49 +7056,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>1693</v>
+        <v>180</v>
       </c>
       <c r="D41" s="7">
-        <v>1720673</v>
+        <v>113118</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>558</v>
+        <v>593</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="H41" s="7">
-        <v>2731</v>
+        <v>370</v>
       </c>
       <c r="I41" s="7">
-        <v>1987150</v>
+        <v>180193</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="M41" s="7">
-        <v>4424</v>
+        <v>550</v>
       </c>
       <c r="N41" s="7">
-        <v>3707824</v>
+        <v>293311</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,49 +7107,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>760</v>
+        <v>144</v>
       </c>
       <c r="D42" s="7">
-        <v>691318</v>
+        <v>89129</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>567</v>
+        <v>602</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="H42" s="7">
-        <v>810</v>
+        <v>241</v>
       </c>
       <c r="I42" s="7">
-        <v>482799</v>
+        <v>115681</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>569</v>
+        <v>288</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="M42" s="7">
-        <v>1570</v>
+        <v>385</v>
       </c>
       <c r="N42" s="7">
-        <v>1174118</v>
+        <v>204810</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>573</v>
+        <v>233</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,49 +7158,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D43" s="7">
-        <v>51099</v>
+        <v>16377</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="H43" s="7">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="I43" s="7">
-        <v>43465</v>
+        <v>21420</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>184</v>
+        <v>613</v>
       </c>
       <c r="M43" s="7">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N43" s="7">
-        <v>94564</v>
+        <v>37797</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>388</v>
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,49 +7209,49 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D44" s="7">
-        <v>109214</v>
+        <v>17802</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>582</v>
+        <v>275</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="H44" s="7">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="I44" s="7">
-        <v>83429</v>
+        <v>33595</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>620</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="M44" s="7">
-        <v>270</v>
+        <v>105</v>
       </c>
       <c r="N44" s="7">
-        <v>192643</v>
+        <v>51396</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,63 +7260,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>447</v>
+      </c>
+      <c r="D45" s="7">
+        <v>275487</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>854</v>
+      </c>
+      <c r="I45" s="7">
+        <v>413751</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1301</v>
+      </c>
+      <c r="N45" s="7">
+        <v>689238</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>710</v>
+      </c>
+      <c r="D46" s="7">
+        <v>959861</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1572</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1094478</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="M46" s="7">
+        <v>2282</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2054339</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1693</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1654233</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="H47" s="7">
+        <v>2731</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1981020</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="M47" s="7">
+        <v>4424</v>
+      </c>
+      <c r="N47" s="7">
+        <v>3635254</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>760</v>
+      </c>
+      <c r="D48" s="7">
+        <v>678711</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H48" s="7">
+        <v>810</v>
+      </c>
+      <c r="I48" s="7">
+        <v>449028</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1570</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1127740</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>62</v>
+      </c>
+      <c r="D49" s="7">
+        <v>47343</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="H49" s="7">
+        <v>70</v>
+      </c>
+      <c r="I49" s="7">
+        <v>38446</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="M49" s="7">
+        <v>132</v>
+      </c>
+      <c r="N49" s="7">
+        <v>85789</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>130</v>
+      </c>
+      <c r="D50" s="7">
+        <v>105304</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="H50" s="7">
+        <v>140</v>
+      </c>
+      <c r="I50" s="7">
+        <v>77842</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="M50" s="7">
+        <v>270</v>
+      </c>
+      <c r="N50" s="7">
+        <v>183146</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3355</v>
       </c>
-      <c r="D45" s="7">
-        <v>3370130</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3445454</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>5323</v>
       </c>
-      <c r="I45" s="7">
-        <v>3784548</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3640813</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>8678</v>
       </c>
-      <c r="N45" s="7">
-        <v>7154678</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>319</v>
+      <c r="N51" s="7">
+        <v>7086268</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
